--- a/2020년도 1학기/문서/20200617_너는나의친구_Testcase.xlsx
+++ b/2020년도 1학기/문서/20200617_너는나의친구_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김승우\Desktop\아들\2020 1학기\캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7637C2D9-9C9F-43C3-9900-6B78947B1BDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB4B0F-57CB-4BA2-9C9D-15D9DC95AC33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="105" windowWidth="24690" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤 버튼을 누르면 랜덤으로 대본을 재생하는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재생목록 화면 하단 인터페이스 바의 "반복" 버튼을 누른다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,6 +524,22 @@
   </si>
   <si>
     <t>재생중에는 불가하다는 알림이 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 버튼을 누르면 랜덤,순서대로 재생 상태로 설정되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 상태, 랜덤 상태에서 대본 실행 시 대본이 끝나고 랜덤으로 대본이 실행 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤,반복 상태에서 대본을 실행시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대본이 끝난 후 방금 읽은 대본을 제외하고 랜덤으로 대본을 실행한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +662,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -952,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G50"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,33 +986,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1015,8 +1030,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1033,8 +1048,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1047,8 +1062,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1061,8 +1076,8 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1077,8 +1092,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>103</v>
       </c>
@@ -1093,8 +1108,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>102</v>
       </c>
@@ -1109,8 +1124,8 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1125,8 +1140,8 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1141,8 +1156,8 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
@@ -1157,8 +1172,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
@@ -1173,8 +1188,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1191,8 +1206,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1222,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1223,8 +1238,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1239,8 +1254,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
@@ -1255,8 +1270,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1271,8 +1286,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1289,8 +1304,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="2" t="s">
         <v>87</v>
       </c>
@@ -1305,8 +1320,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1321,8 +1336,8 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
@@ -1337,8 +1352,8 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4" t="s">
         <v>105</v>
       </c>
@@ -1353,8 +1368,8 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1371,8 +1386,8 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +1402,8 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="5" t="s">
         <v>22</v>
       </c>
@@ -1403,8 +1418,8 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="5" t="s">
         <v>25</v>
       </c>
@@ -1419,8 +1434,8 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="5" t="s">
         <v>21</v>
       </c>
@@ -1435,8 +1450,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="5" t="s">
         <v>20</v>
       </c>
@@ -1451,8 +1466,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1467,8 +1482,8 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
@@ -1483,152 +1498,164 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="G43" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
@@ -1640,18 +1667,22 @@
     </row>
     <row r="46" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+    </row>
     <row r="48" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C42"/>
-    <mergeCell ref="B4:B42"/>
+    <mergeCell ref="C26:C43"/>
+    <mergeCell ref="B4:B43"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C5:C14"/>
